--- a/Jogos_do_Dia/2023-11-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>5.25</v>
+        <v>3.93</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.32</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.31</v>
@@ -718,16 +718,16 @@
         <v>3.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>1.99</v>
@@ -754,19 +754,19 @@
         <v>3.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.56</v>
@@ -787,10 +787,10 @@
         <v>1.57</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -926,10 +926,10 @@
         <v>1.27</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -1108,13 +1108,13 @@
         <v>2.61</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="L5" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.41</v>
@@ -1135,10 +1135,10 @@
         <v>3.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>1.77</v>
@@ -1250,7 +1250,7 @@
         <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1274,10 +1274,10 @@
         <v>3.61</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1386,13 +1386,13 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.41</v>
@@ -1413,7 +1413,7 @@
         <v>3.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.75</v>
@@ -1664,13 +1664,13 @@
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>3.29</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1803,37 +1803,37 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
@@ -1866,13 +1866,13 @@
         <v>2.97</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>3.69</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="AH11" t="n">
         <v>1.19</v>
@@ -2078,16 +2078,16 @@
         <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>3.36</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>2.45</v>
@@ -2220,13 +2220,13 @@
         <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.25</v>
@@ -2250,7 +2250,7 @@
         <v>1.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2320,6 +2320,145 @@
       </c>
       <c r="AQ13" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.93</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.32</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.39</v>
@@ -718,16 +718,16 @@
         <v>3.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>1.99</v>
@@ -754,13 +754,13 @@
         <v>3.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AH2" t="n">
         <v>1.26</v>
@@ -1108,13 +1108,13 @@
         <v>2.61</v>
       </c>
       <c r="J5" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="M5" t="n">
         <v>1.41</v>
@@ -1135,10 +1135,10 @@
         <v>3.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.77</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.59</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.07</v>
       </c>
       <c r="M6" t="n">
         <v>1.38</v>
@@ -1274,10 +1274,10 @@
         <v>3.61</v>
       </c>
       <c r="S6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.91</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1386,10 +1386,10 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L7" t="n">
         <v>2.7</v>
@@ -1413,10 +1413,10 @@
         <v>3.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y8" t="n">
         <v>2.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="Z8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1.66</v>
       </c>
-      <c r="R8" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AD8" t="n">
-        <v>2.46</v>
+        <v>3.29</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.77</v>
+        <v>4.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.99</v>
+        <v>3.05</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.23</v>
+        <v>1.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="Q9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.53</v>
+        <v>1.11</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.29</v>
+        <v>2.46</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="AK9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.05</v>
       </c>
-      <c r="AL9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="10">
@@ -1803,37 +1803,37 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="S10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T10" t="n">
         <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
@@ -1842,13 +1842,13 @@
         <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Z10" t="n">
         <v>0.88</v>
@@ -1866,19 +1866,19 @@
         <v>2.97</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.27</v>
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.69</v>
+        <v>3.36</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -2063,124 +2063,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S12" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.36</v>
+        <v>3.69</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13">
@@ -2220,13 +2220,13 @@
         <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="L13" t="n">
-        <v>2.85</v>
+        <v>2.53</v>
       </c>
       <c r="M13" t="n">
         <v>1.25</v>
@@ -2247,10 +2247,10 @@
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="T13" t="n">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2350,61 +2350,61 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>3.2</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z14" t="n">
         <v>1.79</v>
@@ -2431,10 +2431,10 @@
         <v>2.28</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ14" t="n">
         <v>1.29</v>
